--- a/data/hotels_by_city/Houston/Houston_shard_505.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_505.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56577-d223651-Reviews-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Rosenberg-Hotels-Motel-6-Rosenberg.h519760.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,300 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r521851108-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>223651</t>
+  </si>
+  <si>
+    <t>521851108</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracious, pet friendly family atmosphere </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed two nights delivering supplies to hurricane relief warehouses and the managetment was extremely kind giving and hospitable to me and the many evacuees filling the motel to capacity. The price I payed for the last available room was actually $2.00 less than listed online. The newly renovated room was perfect for the price. Will come here again. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r496245683-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>496245683</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Not very friendly</t>
+  </si>
+  <si>
+    <t>Had to ask for the price for the room, acted like we were bothering him. Then when we got to the room to shower, no shampoo. When my husband went to ask again, he acted like he was surprised we'd ask, he also asked about a hairdryer. Husband and son never were able to get on Wifi. I don't think he's the right person to be greeting or managing the front desk with his attitude. Won't stay there again.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r496122290-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>496122290</t>
+  </si>
+  <si>
+    <t>Spacious Updated Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was spacious, updated, and clean. A great value. I LOVE rooms with laminate flooring (which this room had) instead of carpeting - which is usually dirty. Lots of bathroom counter space. Nice outdoor pool and patio area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r455232493-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>455232493</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>Pretty nice for a motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The front staff was super nice.  Very helpful. The room was nice.  Bed was pretty furm.  Too firm for me but others like them like that.  Room and bath were clean.  Nothing for breakfast including only instant coffee.  </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r291925050-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>291925050</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>Room was very clean, AC worked good, plenty of hot water for the shower, enough towels, washcloths, soap, for two people overnight, easy to get to location from either direction.  Fast food next door and more within walking distance.  Located on the frontage road by a very busy freeway but the AC blocks out that noise.  You can get some rest here.  I will stay here whenever in the area.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r287370200-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>287370200</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Completely remodel rooms</t>
+  </si>
+  <si>
+    <t>again I stay on this hotel since I frequently travel to Rosenberg. The rooms are very clean and nicely decorated. NO carpet on the floors so every step the people from second floor made you heard them. Ideally for next time if they are not going to put carpet on the floors then I will ask for a second floor room.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r276551950-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>276551950</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>DO NOT GO HERE UNDER ANY CIRCUMSTANCES</t>
+  </si>
+  <si>
+    <t>If you can avoid it, do not go here. At first glance this hotel seemed alright. The building in general looked very modern, and well renovated. The staff at the front desk was also very cheerful and kind. I was starting to think that going to this hotel was a good choice, until i arrived to the room. The room at first glance looks clean and very modern. The design of the room itself is actually quite exquisite. Upon actually looking at the quality of the room, I realized that the room was absolutely distusting. Our double bed room proved to be a nightmare. The first problem was the AC not fully functioning. We called in the front desk, and then the manager came to our room, because he was astounded that the ac was not working. He came in our room, starting sweating after only staying five minutes, but somehow was trying to convince us that the ac was working. We demanded a room change, but this was only worse. I should also mention the fact that the first room had a blood stain on the pillow. The second room was dirtier and old. The shower floor was grouty, and actually had a little bit of "dust".. well hopefully dust. The beds have darker areas that signify that the stains had "attempted" to be bleached out. The fridge has rust. The awesome looking couch has dirt and small particles...If you can avoid it, do not go here. At first glance this hotel seemed alright. The building in general looked very modern, and well renovated. The staff at the front desk was also very cheerful and kind. I was starting to think that going to this hotel was a good choice, until i arrived to the room. The room at first glance looks clean and very modern. The design of the room itself is actually quite exquisite. Upon actually looking at the quality of the room, I realized that the room was absolutely distusting. Our double bed room proved to be a nightmare. The first problem was the AC not fully functioning. We called in the front desk, and then the manager came to our room, because he was astounded that the ac was not working. He came in our room, starting sweating after only staying five minutes, but somehow was trying to convince us that the ac was working. We demanded a room change, but this was only worse. I should also mention the fact that the first room had a blood stain on the pillow. The second room was dirtier and old. The shower floor was grouty, and actually had a little bit of "dust".. well hopefully dust. The beds have darker areas that signify that the stains had "attempted" to be bleached out. The fridge has rust. The awesome looking couch has dirt and small particles of food on it. The cleanliness of this room was 0/5. They really need to figure it out, because this is not worth the price. Do not go here under any circumstances!! I hope they read this, and make beneficial changes!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Rosenberg, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>If you can avoid it, do not go here. At first glance this hotel seemed alright. The building in general looked very modern, and well renovated. The staff at the front desk was also very cheerful and kind. I was starting to think that going to this hotel was a good choice, until i arrived to the room. The room at first glance looks clean and very modern. The design of the room itself is actually quite exquisite. Upon actually looking at the quality of the room, I realized that the room was absolutely distusting. Our double bed room proved to be a nightmare. The first problem was the AC not fully functioning. We called in the front desk, and then the manager came to our room, because he was astounded that the ac was not working. He came in our room, starting sweating after only staying five minutes, but somehow was trying to convince us that the ac was working. We demanded a room change, but this was only worse. I should also mention the fact that the first room had a blood stain on the pillow. The second room was dirtier and old. The shower floor was grouty, and actually had a little bit of "dust".. well hopefully dust. The beds have darker areas that signify that the stains had "attempted" to be bleached out. The fridge has rust. The awesome looking couch has dirt and small particles...If you can avoid it, do not go here. At first glance this hotel seemed alright. The building in general looked very modern, and well renovated. The staff at the front desk was also very cheerful and kind. I was starting to think that going to this hotel was a good choice, until i arrived to the room. The room at first glance looks clean and very modern. The design of the room itself is actually quite exquisite. Upon actually looking at the quality of the room, I realized that the room was absolutely distusting. Our double bed room proved to be a nightmare. The first problem was the AC not fully functioning. We called in the front desk, and then the manager came to our room, because he was astounded that the ac was not working. He came in our room, starting sweating after only staying five minutes, but somehow was trying to convince us that the ac was working. We demanded a room change, but this was only worse. I should also mention the fact that the first room had a blood stain on the pillow. The second room was dirtier and old. The shower floor was grouty, and actually had a little bit of "dust".. well hopefully dust. The beds have darker areas that signify that the stains had "attempted" to be bleached out. The fridge has rust. The awesome looking couch has dirt and small particles of food on it. The cleanliness of this room was 0/5. They really need to figure it out, because this is not worth the price. Do not go here under any circumstances!! I hope they read this, and make beneficial changes!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r254953713-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>254953713</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Its basic and what you would expect from a Motel 6. But the room is immaculate in cleanliness and includes Cable wifi and microfridge.. Manger was super nice. The room has just been update to mordern style. We'll come back.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r242328971-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>242328971</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>Not a good Motel 6</t>
+  </si>
+  <si>
+    <t>I arrived about 7 p.m. with no reservation and was told only single available was a suite.  I asked if a no smoking double was available.  Yes.  I asked the rate.  The double was $4 0r $5 cheaper than the single suite, so I took it.  Judging from the number of cars in the lot, it wasn't full.  There was a sign asking to pardon the mess for renovation, so I put up with the smell, thinking it was paint or plaster.  I was very tired and did not want to face Houston traffic in the dark, so stayed, even when I realized after moving in that the odor in my room was urine.The bathroom was clean, but there was hardly a surface in the room without a stain.  Even the folding luggage holder was rusty and stained.  The bed was comfortable; the wifi worked.  Drunks came in upstairs at 2:09 a.m. and stomped around.The last straw was the morning coffee.  Instead of the usual Motel 6 coffee served in thermoses, this one has the Douwe/Egberts brick version of instant.  This is horrible stuff with the bitter taste of instant--not a way to start a day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I arrived about 7 p.m. with no reservation and was told only single available was a suite.  I asked if a no smoking double was available.  Yes.  I asked the rate.  The double was $4 0r $5 cheaper than the single suite, so I took it.  Judging from the number of cars in the lot, it wasn't full.  There was a sign asking to pardon the mess for renovation, so I put up with the smell, thinking it was paint or plaster.  I was very tired and did not want to face Houston traffic in the dark, so stayed, even when I realized after moving in that the odor in my room was urine.The bathroom was clean, but there was hardly a surface in the room without a stain.  Even the folding luggage holder was rusty and stained.  The bed was comfortable; the wifi worked.  Drunks came in upstairs at 2:09 a.m. and stomped around.The last straw was the morning coffee.  Instead of the usual Motel 6 coffee served in thermoses, this one has the Douwe/Egberts brick version of instant.  This is horrible stuff with the bitter taste of instant--not a way to start a day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r211073533-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>211073533</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>rosenberg texas</t>
+  </si>
+  <si>
+    <t>Great place to stay. Very convenient location . Staff very friendly and helpful, Shopping and restaurants are close byb Would definitely recommend this hotel if you are in the area. Prices are very reasonable.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r199531309-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>199531309</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Not your typical motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular hotel ie full size rooms,beds,tv s etc.  converted from comfort inn or holiday express so all of those benefits except motel 6 amenities(none) best value/deal of our trip.  Good location/surroundings </t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r196815469-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>196815469</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>beds fall short,</t>
+  </si>
+  <si>
+    <t>Motel 6 is by far lowest on the hotel food chain but the least a hotel could provide are comfortable beds and this particular Motel 6 fell short. The staff was nice, facilities were clean but the beds lacked any support. Might add , the deodorizer scent in the entire hotel can be a bit much.  Will not recommend or return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r149313800-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>149313800</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Holiday Horror</t>
+  </si>
+  <si>
+    <t>There was no water  pressure in the shower and stale stinch in room. The fold out sofa had cigarettes, crumbs, and trash. The staff was rude. And I was given an ajoined room that wasn't locked, which creeped me out,</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r115434028-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>115434028</t>
+  </si>
+  <si>
+    <t>07/16/2011</t>
+  </si>
+  <si>
+    <t>Not a lot of options in Rosenberg!!!</t>
+  </si>
+  <si>
+    <t>Not sure if anyone happens to need a lodging option in Rosenberg, Texas, but here we go . . . ! ! !This Motel 6 was a 3-story motel, with a pool, exercise room, and internet access in the lobby.  Our room was equipped with a refrigerator, and if I remember correctly, a microwave.We stayed 3 nights at a very affordable price, due to our AAA membership.  During that time, a gentleman named Sanjay was a superstar ~ he worked in the evenings.Didn't spend a lot of time in the room, but a short synopsis:  We found cigarettes and old socks behind one of the chairs in the room.  One of the "pieces of art" was missing from over one of the beds.  Dead bugs were on the floor near the doorway and in the bathroom.    Housekeeping leaves much to be desired, if you haven't figured it out yet!  They were sure to knock on our door at 8:30 each morning to check when we'd be heading out.  Also, when we called down to the front desk to have our sheets changed (per the directions in the room) we were told that we had "just checked in yesterday."  For a relatively newer property, these were some of the things that gave me pause.The reviews for Rosenberg hotels/motels were pretty dismal, and this kinda just adds to it.  But the location was convenient, and night employee helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Not sure if anyone happens to need a lodging option in Rosenberg, Texas, but here we go . . . ! ! !This Motel 6 was a 3-story motel, with a pool, exercise room, and internet access in the lobby.  Our room was equipped with a refrigerator, and if I remember correctly, a microwave.We stayed 3 nights at a very affordable price, due to our AAA membership.  During that time, a gentleman named Sanjay was a superstar ~ he worked in the evenings.Didn't spend a lot of time in the room, but a short synopsis:  We found cigarettes and old socks behind one of the chairs in the room.  One of the "pieces of art" was missing from over one of the beds.  Dead bugs were on the floor near the doorway and in the bathroom.    Housekeeping leaves much to be desired, if you haven't figured it out yet!  They were sure to knock on our door at 8:30 each morning to check when we'd be heading out.  Also, when we called down to the front desk to have our sheets changed (per the directions in the room) we were told that we had "just checked in yesterday."  For a relatively newer property, these were some of the things that gave me pause.The reviews for Rosenberg hotels/motels were pretty dismal, and this kinda just adds to it.  But the location was convenient, and night employee helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r15004641-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>15004641</t>
+  </si>
+  <si>
+    <t>04/13/2008</t>
+  </si>
+  <si>
+    <t>Nice hotel and location with a good price</t>
+  </si>
+  <si>
+    <t>This was a nice place to stay on the outskirts of Houston so we could get away  in the morning without any traffic issues. The room was clean.  The only issue we had was with the wireless internet. It usually was not working.  I would stay here again.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +832,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +864,996 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_505.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_505.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r609403060-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>56577</t>
+  </si>
+  <si>
+    <t>223651</t>
+  </si>
+  <si>
+    <t>609403060</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Bed bugs BEWARE**********************************88888</t>
+  </si>
+  <si>
+    <t>I stayed at the Motel 6 for 3 nights...the first 2 nights were ok...the third night I had to change my room due to bed bugs. I went immediately went to the front desk, he didnt want to hear it but he gave me another room, in which i checked out and it was ok...but I was afraid to sleep in the bed...so I slept in the chair all night....</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r563360734-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>563360734</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Reserved a room, didn't stay, still charged my card</t>
+  </si>
+  <si>
+    <t>I reserved a room for the 24th of February.  I ended up not making it to Rosenberg and didn't stay in the hotel.  Well they decided to charge my card anyway for the room.  I am currently waiting for the charge to be reversed or I will be disputing it with my bank.  One my online banking it states that I was there in person, but they entered my card number in manually.  I will never reserve another room at this Motel 6.  I have stayed at many Motel 6's in the past but this one will never get my business!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Rosenberg, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>I reserved a room for the 24th of February.  I ended up not making it to Rosenberg and didn't stay in the hotel.  Well they decided to charge my card anyway for the room.  I am currently waiting for the charge to be reversed or I will be disputing it with my bank.  One my online banking it states that I was there in person, but they entered my card number in manually.  I will never reserve another room at this Motel 6.  I have stayed at many Motel 6's in the past but this one will never get my business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r545873836-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>545873836</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Stayed for one night while traveling to southern Texas. Recently refurbished hotel , very clean  and great beds , lots of hot water and towels, excellent big screen tv and programming  and very quiet  facility. Spacious rooms The front desk staff were friendly and accommodating. Best of all the price is right. No unpleasant surprises.Nice big refrigerator and working microwave. The hotel doesn't have a continental breakfast but there is a waffle restaurant  right next door. Good Food there.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r521851108-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
-    <t>56577</t>
-  </si>
-  <si>
-    <t>223651</t>
-  </si>
-  <si>
     <t>521851108</t>
   </si>
   <si>
@@ -210,7 +279,43 @@
     <t xml:space="preserve">Room was spacious, updated, and clean. A great value. I LOVE rooms with laminate flooring (which this room had) instead of carpeting - which is usually dirty. Lots of bathroom counter space. Nice outdoor pool and patio area. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r495712343-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>495712343</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Fair Property, Hide Prices, Hostile Maid Service</t>
+  </si>
+  <si>
+    <t>Not up to Motel 6 standards. Hostile Maid service,  and front desk that ignores guests. They take down room rates from front desk wall when full to charge more. Construction workers and local transient and drug users seem to like it. Motel 6 is not watching people operating their properties. Sad</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r461552981-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>461552981</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Occasional motel stays required after house fire.</t>
+  </si>
+  <si>
+    <t>After a house fire, the insurance company put me up at another motel across I69/US59 from this one. I greatly enjoyed "hotel life" there but had to leave. My current accommodation does not have central air/heat and so I occasionally stay at this Motel 6. It's cleaner than the first place I stayed, and more reliably has towels, washcloths and TP. The washers and dryers work and are reasonably priced. A Waffle House with inconsistent service and quality is next door, and Wendy's is across the driveway from there. A decent Tex-Mex place is on the other side of the freeway, as are various fast food places. TX DoT is making a mess of things for the next year or so ('til mid-2018) but highway access is usually pain-free. A fire door, that's to "remain closed at all times," always seems to be open. It's a budget motel: it provides no toiletries, hair dryer, radio/alarm clock, iron or ironing board. Some vinyl floors look to have been unprofessionally installed. A couple refrigerators show signs of age; however, the last room I stayed in had a fridge/freezer, a real boon as I could bring a couple of days' food and not have to pay for restaurant meals. Local newspaper is free. No dedicated pet relief area, so - watch your step. Currently there's an empty field to the east where I've seen birds of prey hunting. I haven't noticed any extraordinary...After a house fire, the insurance company put me up at another motel across I69/US59 from this one. I greatly enjoyed "hotel life" there but had to leave. My current accommodation does not have central air/heat and so I occasionally stay at this Motel 6. It's cleaner than the first place I stayed, and more reliably has towels, washcloths and TP. The washers and dryers work and are reasonably priced. A Waffle House with inconsistent service and quality is next door, and Wendy's is across the driveway from there. A decent Tex-Mex place is on the other side of the freeway, as are various fast food places. TX DoT is making a mess of things for the next year or so ('til mid-2018) but highway access is usually pain-free. A fire door, that's to "remain closed at all times," always seems to be open. It's a budget motel: it provides no toiletries, hair dryer, radio/alarm clock, iron or ironing board. Some vinyl floors look to have been unprofessionally installed. A couple refrigerators show signs of age; however, the last room I stayed in had a fridge/freezer, a real boon as I could bring a couple of days' food and not have to pay for restaurant meals. Local newspaper is free. No dedicated pet relief area, so - watch your step. Currently there's an empty field to the east where I've seen birds of prey hunting. I haven't noticed any extraordinary freeway noise, nor did I notice the elevator when I had a room near it. I've already made reservations for another stay, this time with visiting family.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>After a house fire, the insurance company put me up at another motel across I69/US59 from this one. I greatly enjoyed "hotel life" there but had to leave. My current accommodation does not have central air/heat and so I occasionally stay at this Motel 6. It's cleaner than the first place I stayed, and more reliably has towels, washcloths and TP. The washers and dryers work and are reasonably priced. A Waffle House with inconsistent service and quality is next door, and Wendy's is across the driveway from there. A decent Tex-Mex place is on the other side of the freeway, as are various fast food places. TX DoT is making a mess of things for the next year or so ('til mid-2018) but highway access is usually pain-free. A fire door, that's to "remain closed at all times," always seems to be open. It's a budget motel: it provides no toiletries, hair dryer, radio/alarm clock, iron or ironing board. Some vinyl floors look to have been unprofessionally installed. A couple refrigerators show signs of age; however, the last room I stayed in had a fridge/freezer, a real boon as I could bring a couple of days' food and not have to pay for restaurant meals. Local newspaper is free. No dedicated pet relief area, so - watch your step. Currently there's an empty field to the east where I've seen birds of prey hunting. I haven't noticed any extraordinary...After a house fire, the insurance company put me up at another motel across I69/US59 from this one. I greatly enjoyed "hotel life" there but had to leave. My current accommodation does not have central air/heat and so I occasionally stay at this Motel 6. It's cleaner than the first place I stayed, and more reliably has towels, washcloths and TP. The washers and dryers work and are reasonably priced. A Waffle House with inconsistent service and quality is next door, and Wendy's is across the driveway from there. A decent Tex-Mex place is on the other side of the freeway, as are various fast food places. TX DoT is making a mess of things for the next year or so ('til mid-2018) but highway access is usually pain-free. A fire door, that's to "remain closed at all times," always seems to be open. It's a budget motel: it provides no toiletries, hair dryer, radio/alarm clock, iron or ironing board. Some vinyl floors look to have been unprofessionally installed. A couple refrigerators show signs of age; however, the last room I stayed in had a fridge/freezer, a real boon as I could bring a couple of days' food and not have to pay for restaurant meals. Local newspaper is free. No dedicated pet relief area, so - watch your step. Currently there's an empty field to the east where I've seen birds of prey hunting. I haven't noticed any extraordinary freeway noise, nor did I notice the elevator when I had a room near it. I've already made reservations for another stay, this time with visiting family.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r455232493-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
@@ -228,9 +333,6 @@
     <t xml:space="preserve">The front staff was super nice.  Very helpful. The room was nice.  Bed was pretty furm.  Too firm for me but others like them like that.  Room and bath were clean.  Nothing for breakfast including only instant coffee.  </t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r291925050-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -267,6 +369,36 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r285520986-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>285520986</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Budget hotel.</t>
+  </si>
+  <si>
+    <t>Nice enough hotel but as expected pretty basic but served well as en-route and no real detour from the Highway. Rooms are fine and only minor complaint was the lack of toiletries but it is a budget hotel !!. Free coffee is available to start the day and a word of advice is not to use the Waffle House opposite as its awful !!.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r282406680-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>282406680</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Even better than expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down in Texas for work and the company has a corporate account with Motel 6. I've heard stories that weren't all that well pleasant. After deciding to take a gamble on this particular one, I found I was in one of the nicest and affordable motel I've been in since traveling. Clean, comfortable, and modern. Definitely worth the money and pretty convenient location. Will remember this one when I come back around this part of Texas. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r276551950-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -327,12 +459,48 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I arrived about 7 p.m. with no reservation and was told only single available was a suite.  I asked if a no smoking double was available.  Yes.  I asked the rate.  The double was $4 0r $5 cheaper than the single suite, so I took it.  Judging from the number of cars in the lot, it wasn't full.  There was a sign asking to pardon the mess for renovation, so I put up with the smell, thinking it was paint or plaster.  I was very tired and did not want to face Houston traffic in the dark, so stayed, even when I realized after moving in that the odor in my room was urine.The bathroom was clean, but there was hardly a surface in the room without a stain.  Even the folding luggage holder was rusty and stained.  The bed was comfortable; the wifi worked.  Drunks came in upstairs at 2:09 a.m. and stomped around.The last straw was the morning coffee.  Instead of the usual Motel 6 coffee served in thermoses, this one has the Douwe/Egberts brick version of instant.  This is horrible stuff with the bitter taste of instant--not a way to start a day.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r232859421-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>232859421</t>
+  </si>
+  <si>
+    <t>10/06/2014</t>
+  </si>
+  <si>
+    <t>Better than I expected</t>
+  </si>
+  <si>
+    <t>We stayed almost a week at the Motel 6, and that gives you a good chance to really get to know the property. I was visiting family but using it as an office base, so was there a lot during the day.First, I was pleasantly surprised by the decor and overall ambience.  I have stayed at a Motel 6 before and this is by far the nicest.The staff were very friendly and helpful and the rate was great! Big screen TV and good channel selection; good size fridge and microwave; I was told that they will be refurbishing soon, and I would definitely stay again. Just a few minor things:Pillows - almost worthless and only two, very small, very thin.Coffee Machine - No breakfast but the Koenig coffee machine was excellent.  Shame they couldn't leave it on all day.  Just a small expense, but would be appreciated.My son went to the third (smoking) floor by mistake and said that it was pretty smelly, but we didn't smell it on the second floor.The outside doors - which have key-card entry - seemed to never be locked which is a bit disconcerting on a hotel on a major highway.Our room had pretty bad Wi-Fi signal.Overall though, excellent value and convenient locationMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We stayed almost a week at the Motel 6, and that gives you a good chance to really get to know the property. I was visiting family but using it as an office base, so was there a lot during the day.First, I was pleasantly surprised by the decor and overall ambience.  I have stayed at a Motel 6 before and this is by far the nicest.The staff were very friendly and helpful and the rate was great! Big screen TV and good channel selection; good size fridge and microwave; I was told that they will be refurbishing soon, and I would definitely stay again. Just a few minor things:Pillows - almost worthless and only two, very small, very thin.Coffee Machine - No breakfast but the Koenig coffee machine was excellent.  Shame they couldn't leave it on all day.  Just a small expense, but would be appreciated.My son went to the third (smoking) floor by mistake and said that it was pretty smelly, but we didn't smell it on the second floor.The outside doors - which have key-card entry - seemed to never be locked which is a bit disconcerting on a hotel on a major highway.Our room had pretty bad Wi-Fi signal.Overall though, excellent value and convenient locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r217603374-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>217603374</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>They can do better.You get what you pay for.</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights as a get away to finish my comp exam for grad school.  The lightning was totally dim.Because it was a holiday inn it had the convience of microfridge but other thingslike ironing board and iron were abscent from the room.  I was made to haul them upstairs myself only for the iron not to work.The walls needed paint and you could tell where other light fixtures formally existed. A small spider joined me for a shower. The motel either smelt bleechy or like ..herbs...both of which were too strongwhats worst is the needed wi-fi was shoddy...bad experience.The only good was the friendly young lady who checked me in.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights as a get away to finish my comp exam for grad school.  The lightning was totally dim.Because it was a holiday inn it had the convience of microfridge but other thingslike ironing board and iron were abscent from the room.  I was made to haul them upstairs myself only for the iron not to work.The walls needed paint and you could tell where other light fixtures formally existed. A small spider joined me for a shower. The motel either smelt bleechy or like ..herbs...both of which were too strongwhats worst is the needed wi-fi was shoddy...bad experience.The only good was the friendly young lady who checked me in.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r211073533-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
   </si>
   <si>
@@ -385,6 +553,48 @@
   </si>
   <si>
     <t>Motel 6 is by far lowest on the hotel food chain but the least a hotel could provide are comfortable beds and this particular Motel 6 fell short. The staff was nice, facilities were clean but the beds lacked any support. Might add , the deodorizer scent in the entire hotel can be a bit much.  Will not recommend or return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r180969989-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>180969989</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Wedding stay horror!!!</t>
+  </si>
+  <si>
+    <t>We came to the hotel at 2:30 pm to ask if they had a king-no smoking room available. The desk clerk said that she did. After I had agreed to the room, the manager came and changed the room and put us in a double room. He then refused to give me the AARP rate on the room saying that he was probably going to be full that night because there was some kind of convention in town. I had been waiting thru several customers and had seen the rate that they were charged and it was no where as high as he charged me. We were going to be late to the wedding if I had to go find anothe room, so I took the room. The shower would not adust correctly. It was either all hot or all cold. There was mold and mildew on the wall above the shower/tub. There was no ventilation for the steam. The room was filthy and needed repair. I wouldn't recommend this hotel to anyone!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Rosenberg, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2013</t>
+  </si>
+  <si>
+    <t>We came to the hotel at 2:30 pm to ask if they had a king-no smoking room available. The desk clerk said that she did. After I had agreed to the room, the manager came and changed the room and put us in a double room. He then refused to give me the AARP rate on the room saying that he was probably going to be full that night because there was some kind of convention in town. I had been waiting thru several customers and had seen the rate that they were charged and it was no where as high as he charged me. We were going to be late to the wedding if I had to go find anothe room, so I took the room. The shower would not adust correctly. It was either all hot or all cold. There was mold and mildew on the wall above the shower/tub. There was no ventilation for the steam. The room was filthy and needed repair. I wouldn't recommend this hotel to anyone!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r151739109-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
+  </si>
+  <si>
+    <t>151739109</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Cheap Motel With Better Quality</t>
+  </si>
+  <si>
+    <t>I stay at this Motel 6 frequently, the rooms always clean, nice and comfortable. Now they have Big TV in the rooms.I seen first Motel 6 with 39" TV which make me happy. Motel staff is always nice and helpful specially one that work in day time. This is my first choice in Rosenberg.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56577-d223651-r149313800-Motel_6_Rosenberg-Rosenberg_Texas.html</t>
@@ -973,7 +1183,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -984,9 +1194,13 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1030,7 +1244,7 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -1039,24 +1253,28 @@
         <v>59</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1072,7 +1290,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1081,39 +1299,45 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1129,7 +1353,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1138,25 +1362,25 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1170,7 +1394,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1186,7 +1410,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1195,37 +1419,37 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1233,7 +1457,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1249,7 +1473,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1258,45 +1482,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
         <v>78</v>
       </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1312,7 +1530,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1321,25 +1539,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1350,14 +1568,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" t="s">
-        <v>89</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1587,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1382,33 +1596,33 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1420,7 +1634,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -1436,7 +1650,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1445,32 +1659,30 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="s"/>
       <c r="V10" t="n">
@@ -1522,17 +1734,13 @@
         <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
       </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
       <c r="S11" t="n">
         <v>5</v>
       </c>
@@ -1562,7 +1770,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1571,39 +1779,45 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>114</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>115</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1619,7 +1833,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1628,41 +1842,37 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>120</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>121</v>
       </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
         <v>3</v>
       </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1670,7 +1880,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1686,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1695,49 +1905,39 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
         <v>124</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>125</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>126</v>
       </c>
-      <c r="L14" t="s">
-        <v>127</v>
-      </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +1953,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1762,45 +1962,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
         <v>130</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>131</v>
       </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" t="s">
-        <v>133</v>
-      </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>132</v>
+      </c>
+      <c r="X15" t="s">
+        <v>133</v>
+      </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -1816,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1825,35 +2023,742 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
         <v>137</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>139</v>
-      </c>
-      <c r="L16" t="s">
-        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>82</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>184</v>
+      </c>
+      <c r="X23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>75</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>40279</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
